--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_006.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_006.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(295026EK2.09) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
-  </si>
-  <si>
-    <t>(295031EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Spray cooling</t>
-  </si>
-  <si>
-    <t>(700000AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Frequency changes</t>
-  </si>
-  <si>
-    <t>(295018AA1.07) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295021AK2.05) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
-  </si>
-  <si>
-    <t>(295027EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Equipment environmental qualifications</t>
-  </si>
-  <si>
-    <t>(600000AA1.08) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Firefighting equipment used on each class of fire</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295001AK2.10) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Power range monitoring system</t>
-  </si>
-  <si>
-    <t>(295006AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor pressure response</t>
-  </si>
-  <si>
-    <t>(295019AK2.04) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(295016AA1.11) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) RCIC</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295005AK2.07) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295011AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295007AA1.06) Ability to operate and/or monitor the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Shutdown cooling system (RHR shutdown cooling mode)</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295008AA2.04) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Heatup rate</t>
-  </si>
-  <si>
-    <t>(295014AK2.12) Knowledge of the relationship between the (APE 14) INADVERTENT REACTIVITY ADDITION and the following systems or components: (CFR: 41.7 / 45.8) HPCI</t>
-  </si>
-  <si>
-    <t>(295013AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Suppression pool cooling operation</t>
-  </si>
-  <si>
-    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
-  </si>
-  <si>
-    <t>(209001K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
-  </si>
-  <si>
-    <t>(212000A4.01) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System actuation</t>
-  </si>
-  <si>
-    <t>(211000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection system</t>
-  </si>
-  <si>
-    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(215004A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) RPS status</t>
-  </si>
-  <si>
-    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(215005K4.02) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor SCRAM signals</t>
-  </si>
-  <si>
-    <t>(223002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(510000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Flood prevention</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(259002K3.04) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(264000A4.03) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of emergency control between manual and automatic</t>
-  </si>
-  <si>
-    <t>(217000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler Instrumentation</t>
-  </si>
-  <si>
-    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(218000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(262001A2.01) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine/generator trip</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291005K1.03) MOTORS AND GENERATORS (CFR: 41.7) Causes of excessive current in motors and generators, such as low voltage, overloading, and mechanical binding</t>
-  </si>
-  <si>
-    <t>(263000K4.01) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Manual/automatic transfers</t>
-  </si>
-  <si>
-    <t>(205000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Abnormal reactor water level</t>
-  </si>
-  <si>
-    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
-  </si>
-  <si>
-    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
-  </si>
-  <si>
-    <t>(209001K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell cooling</t>
-  </si>
-  <si>
-    <t>(212000A4.14) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset</t>
-  </si>
-  <si>
-    <t>(211000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) CRD system</t>
-  </si>
-  <si>
-    <t>(226001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.7 / 45.7) AC electrical distribution system</t>
+    <t>(295021AA1.05) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Reactor recirculation</t>
+  </si>
+  <si>
+    <t>(295001AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Natural circulation</t>
+  </si>
+  <si>
+    <t>(295019AK2.02) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295006AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor power response</t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295031EA1.13) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295030EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Pump NPSH</t>
+  </si>
+  <si>
+    <t>(295018AK2.02) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Plant operations</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Boron injection</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295023AA1.03) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel handling equipment</t>
+  </si>
+  <si>
+    <t>(295016AK2.08) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Isolation condensers (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
+  </si>
+  <si>
+    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(700000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Turbine/generator controls</t>
+  </si>
+  <si>
+    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
+  </si>
+  <si>
+    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295017AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.5 / 45.6) Power reduction</t>
+  </si>
+  <si>
+    <t>(295035EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(295032EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) Leak detection system</t>
+  </si>
+  <si>
+    <t>(295008AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Component erosion/damage</t>
+  </si>
+  <si>
+    <t>(295010AK2.07) Knowledge of the relationship between the (APE 10) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water</t>
+  </si>
+  <si>
+    <t>(209002K2.03) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
+  </si>
+  <si>
+    <t>(259002K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(211000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Pump amps</t>
+  </si>
+  <si>
+    <t>(264000K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Bus frequency/voltage</t>
+  </si>
+  <si>
+    <t>(209001K4.09) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Load sequencing</t>
+  </si>
+  <si>
+    <t>(239002A3.09) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) Low-low set logic</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(203000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Vortex limits</t>
+  </si>
+  <si>
+    <t>(262001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Emergency generators</t>
+  </si>
+  <si>
+    <t>(215004A2.04) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale and downscale trips</t>
+  </si>
+  <si>
+    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
+  </si>
+  <si>
+    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
+  </si>
+  <si>
+    <t>(261000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(215005A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(215003K3.05) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) APRM system</t>
+  </si>
+  <si>
+    <t>(205000K4.08) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Prevent inadvertent vessel draining</t>
+  </si>
+  <si>
+    <t>(510000A3.02) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291008K1.10) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Function, control, and precautions associated with disconnects</t>
+  </si>
+  <si>
+    <t>(218000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(212000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(209002K2.01) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(263000A4.06) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfers</t>
+  </si>
+  <si>
+    <t>(259002K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(211000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) RWCU system lineup</t>
+  </si>
+  <si>
+    <t>(271000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.7) Glycol subsystem</t>
+  </si>
+  <si>
+    <t>(201001A2.01) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Pumps trips</t>
+  </si>
+  <si>
+    <t>(241000K2.02) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Controls</t>
+  </si>
+  <si>
+    <t>(259001A4.05) Ability to manually operate and/or monitor the (SF2 FWS) FEEDWATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor water level</t>
+  </si>
+  <si>
+    <t>(286000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FPS) FIRE PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(256000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.5 / 45.5) System lineup</t>
+  </si>
+  <si>
+    <t>(233000K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Area radiation levels</t>
+  </si>
+  <si>
+    <t>(272000K4.04) Knowledge of (SF7, SF9 RMS) RADIATION MONITORING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Process radiation monitoring surveillance testing</t>
+  </si>
+  <si>
+    <t>(216000K3.15) Knowledge of the effect that a loss or malfunction of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Isolation condenser (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
   </si>
   <si>
     <t>(510001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
   </si>
   <si>
-    <t>(290002K3.21) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Standby liquid control system</t>
-  </si>
-  <si>
-    <t>(245000K3.09) Knowledge of the effect that a loss or malfunction of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS</t>
-  </si>
-  <si>
-    <t>(256000A4.14) Ability to manually operate and/or monitor the (SF2 CDS) CONDENSATE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Feedwater heater drain tank level</t>
-  </si>
-  <si>
-    <t>(201003K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and the following systems: (CFR: 41.1 to 41.10 / 45.1 to 45.8) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(259001A3.10) Ability to monitor automatic operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.7 / 45.7) Pump trips</t>
-  </si>
-  <si>
-    <t>(241000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.5 / 45.5) Main turbine bypass valve position</t>
-  </si>
-  <si>
-    <t>(204000A2.11) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal system flow</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(290003K4.01) Knowledge of (SF9 CRV) CONTROL ROOM VENTILATION design features and/or interlocks that provide for the following: (CFR: 41.7) System initiation/reconfiguration</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
     <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292003K1.07) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain prompt critical, prompt jump, and prompt drop</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(292004K1.03) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain resonance absorption</t>
+  </si>
+  <si>
+    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
+  </si>
+  <si>
+    <t>(293006K1.10) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define cavitation</t>
+  </si>
+  <si>
+    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.04) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual jet pump flows</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(295024EA2.10) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Containment temperature (Mark III)</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295002AA2.06) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Condensate flow</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(209001A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239001A2.01) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Malfunction of reactor turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(290002A2.06) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding safety limits</t>
+  </si>
+  <si>
+    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
-  </si>
-  <si>
-    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(293009K1.32) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) List the causes of pellet-clad interaction</t>
-  </si>
-  <si>
-    <t>(293006K1.22) FLUID STATICS AND DYNAMICS (CFR: 41.14) Define or explain the following term or concept: Two-phase flow</t>
-  </si>
-  <si>
-    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(700000AA2.02) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator voltage limitations</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Containment conditions/isolations</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295020AA2.03) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215004A2.05) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system </t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215003A2.05) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(233000A2.11) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Fuel pool gate seal high flow</t>
-  </si>
-  <si>
-    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(288000A2.04) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High radiation</t>
-  </si>
-  <si>
-    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
+    <t>K4</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K4</t>
+    <t>K5</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
     <t>295038</t>
   </si>
   <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295033</t>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295032</t>
   </si>
   <si>
     <t>295008</t>
   </si>
   <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295013</t>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>223002</t>
   </si>
   <si>
     <t>400000</t>
   </si>
   <si>
-    <t>209001</t>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>218000</t>
   </si>
   <si>
     <t>212000</t>
   </si>
   <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
     <t>300000</t>
   </si>
   <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>226001</t>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>245000</t>
   </si>
   <si>
     <t>510001</t>
   </si>
   <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
     <t>290002</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>288000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1531,7 +1531,7 @@
         <v>3.8</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D46" t="s">
         <v>116</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2364,7 +2364,7 @@
         <v>4.3</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2483,7 +2483,7 @@
         <v>3.2</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
